--- a/BoSClean/permanent_housing.xlsx
+++ b/BoSClean/permanent_housing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D603"/>
+  <dimension ref="A1:E603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Provider Tree</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>UID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,6 +481,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,6 +508,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +535,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,6 +562,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +589,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -608,6 +643,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -630,6 +670,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -652,6 +697,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -674,6 +724,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -696,6 +751,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -718,6 +778,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -740,6 +805,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -762,6 +832,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -784,6 +859,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -806,6 +886,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -828,6 +913,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -850,6 +940,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -872,6 +967,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -894,6 +994,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -916,6 +1021,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -938,6 +1048,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -960,6 +1075,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -982,6 +1102,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1004,6 +1129,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1026,6 +1156,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1048,6 +1183,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1070,6 +1210,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1092,6 +1237,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1114,6 +1264,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1136,6 +1291,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1158,6 +1318,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1180,6 +1345,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1202,6 +1372,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1224,6 +1399,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1246,6 +1426,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1268,6 +1453,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1290,6 +1480,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1312,6 +1507,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1334,6 +1534,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1356,6 +1561,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1378,6 +1588,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1400,6 +1615,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1422,6 +1642,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1444,6 +1669,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1466,6 +1696,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1488,6 +1723,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1510,6 +1750,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1532,6 +1777,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1554,6 +1804,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1576,6 +1831,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1598,6 +1858,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1620,6 +1885,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1642,6 +1912,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1664,6 +1939,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1686,6 +1966,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1708,6 +1993,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1730,6 +2020,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1752,6 +2047,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1774,6 +2074,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1796,6 +2101,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1818,6 +2128,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1840,6 +2155,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1862,6 +2182,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1884,6 +2209,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1906,6 +2236,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1928,6 +2263,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1950,6 +2290,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1972,6 +2317,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1994,6 +2344,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2016,6 +2371,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2038,6 +2398,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2060,6 +2425,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2082,6 +2452,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2104,6 +2479,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2126,6 +2506,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2148,6 +2533,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2170,6 +2560,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2192,6 +2587,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2214,6 +2614,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2236,6 +2641,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2258,6 +2668,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2280,6 +2695,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2302,6 +2722,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2324,6 +2749,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2346,6 +2776,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2368,6 +2803,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2390,6 +2830,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2412,6 +2857,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2434,6 +2884,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2456,6 +2911,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2478,6 +2938,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2500,6 +2965,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2522,6 +2992,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2544,6 +3019,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2566,6 +3046,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2588,6 +3073,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2610,6 +3100,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2632,6 +3127,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2654,6 +3154,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2676,6 +3181,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2698,6 +3208,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2720,6 +3235,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2742,6 +3262,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2764,6 +3289,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2786,6 +3316,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2808,6 +3343,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1492-OC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2830,6 +3370,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2852,6 +3397,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2874,6 +3424,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2896,6 +3451,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2918,6 +3478,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2940,6 +3505,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2962,6 +3532,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2984,6 +3559,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3006,6 +3586,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3028,6 +3613,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3050,6 +3640,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3072,6 +3667,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3094,6 +3694,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3116,6 +3721,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3138,6 +3748,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3160,6 +3775,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3182,6 +3802,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3204,6 +3829,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3226,6 +3856,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3248,6 +3883,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3270,6 +3910,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3292,6 +3937,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3314,6 +3964,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3336,6 +3991,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3358,6 +4018,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3380,6 +4045,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3402,6 +4072,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3424,6 +4099,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3446,6 +4126,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3468,6 +4153,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3490,6 +4180,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3512,6 +4207,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3534,6 +4234,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3556,6 +4261,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3578,6 +4288,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3600,6 +4315,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3622,6 +4342,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3644,6 +4369,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3666,6 +4396,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3688,6 +4423,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3710,6 +4450,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3732,6 +4477,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3754,6 +4504,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3776,6 +4531,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3798,6 +4558,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3820,6 +4585,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3842,6 +4612,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3864,6 +4639,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3886,6 +4666,11 @@
           <t>1492</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1492-MC PATH</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3908,6 +4693,11 @@
           <t>3055</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3930,6 +4720,11 @@
           <t>3055</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3952,6 +4747,11 @@
           <t>3055</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3974,6 +4774,11 @@
           <t>3055</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3996,6 +4801,11 @@
           <t>3055</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4018,6 +4828,11 @@
           <t>3055</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4040,6 +4855,11 @@
           <t>3055</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4062,6 +4882,11 @@
           <t>3055</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4084,6 +4909,11 @@
           <t>3055</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4106,6 +4936,11 @@
           <t>3055</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4128,6 +4963,11 @@
           <t>3055</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>3055-SPC</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4150,6 +4990,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4172,6 +5017,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4194,6 +5044,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4216,6 +5071,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4238,6 +5098,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4260,6 +5125,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4282,6 +5152,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4304,6 +5179,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4326,6 +5206,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4348,6 +5233,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4370,6 +5260,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4392,6 +5287,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4414,6 +5314,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4436,6 +5341,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4458,6 +5368,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4480,6 +5395,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4502,6 +5422,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4524,6 +5449,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4546,6 +5476,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4568,6 +5503,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4590,6 +5530,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4612,6 +5557,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4634,6 +5584,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4656,6 +5611,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4678,6 +5638,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4700,6 +5665,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4722,6 +5692,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4744,6 +5719,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4766,6 +5746,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4788,6 +5773,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4810,6 +5800,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4832,6 +5827,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4854,6 +5854,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4876,6 +5881,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4898,6 +5908,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4920,6 +5935,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4942,6 +5962,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4964,6 +5989,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4986,6 +6016,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5008,6 +6043,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5030,6 +6070,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5052,6 +6097,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5074,6 +6124,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5096,6 +6151,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5118,6 +6178,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5140,6 +6205,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5162,6 +6232,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5184,6 +6259,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5206,6 +6286,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5228,6 +6313,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5250,6 +6340,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5272,6 +6367,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5294,6 +6394,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5316,6 +6421,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5338,6 +6448,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5360,6 +6475,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5382,6 +6502,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5404,6 +6529,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5426,6 +6556,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5448,6 +6583,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5470,6 +6610,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5492,6 +6637,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5514,6 +6664,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5536,6 +6691,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5558,6 +6718,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5580,6 +6745,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5602,6 +6772,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5624,6 +6799,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5646,6 +6826,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5668,6 +6853,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5690,6 +6880,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5712,6 +6907,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5734,6 +6934,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5756,6 +6961,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5778,6 +6988,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5800,6 +7015,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5822,6 +7042,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5844,6 +7069,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5866,6 +7096,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5888,6 +7123,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5910,6 +7150,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5932,6 +7177,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5954,6 +7204,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5976,6 +7231,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5998,6 +7258,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6020,6 +7285,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6042,6 +7312,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6064,6 +7339,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6086,6 +7366,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6108,6 +7393,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6130,6 +7420,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6152,6 +7447,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6174,6 +7474,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6196,6 +7501,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6218,6 +7528,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6240,6 +7555,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6262,6 +7582,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6284,6 +7609,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6306,6 +7636,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6328,6 +7663,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6350,6 +7690,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6372,6 +7717,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6394,6 +7744,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6416,6 +7771,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6438,6 +7798,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6460,6 +7825,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6482,6 +7852,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6504,6 +7879,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6526,6 +7906,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6548,6 +7933,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6570,6 +7960,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6592,6 +7987,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6614,6 +8014,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6636,6 +8041,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6658,6 +8068,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6680,6 +8095,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6702,6 +8122,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6724,6 +8149,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6746,6 +8176,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6768,6 +8203,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6790,6 +8230,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6812,6 +8257,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6834,6 +8284,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6856,6 +8311,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6878,6 +8338,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6900,6 +8365,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6922,6 +8392,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6944,6 +8419,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6966,6 +8446,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6988,6 +8473,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7010,6 +8500,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7032,6 +8527,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7054,6 +8554,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7076,6 +8581,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7098,6 +8608,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7120,6 +8635,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7142,6 +8662,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7164,6 +8689,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7186,6 +8716,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -7208,6 +8743,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7230,6 +8770,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7252,6 +8797,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -7274,6 +8824,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7296,6 +8851,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7318,6 +8878,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7340,6 +8905,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -7362,6 +8932,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -7384,6 +8959,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7406,6 +8986,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7428,6 +9013,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -7450,6 +9040,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -7472,6 +9067,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -7494,6 +9094,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7516,6 +9121,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -7538,6 +9148,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -7560,6 +9175,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -7582,6 +9202,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -7604,6 +9229,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -7626,6 +9256,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -7648,6 +9283,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -7670,6 +9310,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -7692,6 +9337,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -7714,6 +9364,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -7736,6 +9391,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -7758,6 +9418,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -7780,6 +9445,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -7802,6 +9472,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -7824,6 +9499,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -7846,6 +9526,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -7868,6 +9553,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -7890,6 +9580,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -7912,6 +9607,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -7934,6 +9634,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -7956,6 +9661,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -7978,6 +9688,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -8000,6 +9715,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -8022,6 +9742,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -8044,6 +9769,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -8066,6 +9796,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -8088,6 +9823,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -8110,6 +9850,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -8132,6 +9877,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -8154,6 +9904,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -8176,6 +9931,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -8198,6 +9958,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -8220,6 +9985,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -8242,6 +10012,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -8264,6 +10039,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -8286,6 +10066,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -8308,6 +10093,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -8330,6 +10120,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -8352,6 +10147,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -8374,6 +10174,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -8396,6 +10201,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -8418,6 +10228,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -8440,6 +10255,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -8462,6 +10282,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -8484,6 +10309,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>8319-Prevention</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -8506,6 +10336,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -8528,6 +10363,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -8550,6 +10390,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -8572,6 +10417,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -8594,6 +10444,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -8616,6 +10471,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -8638,6 +10498,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -8660,6 +10525,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -8682,6 +10552,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -8704,6 +10579,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -8726,6 +10606,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -8748,6 +10633,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -8770,6 +10660,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -8792,6 +10687,11 @@
           <t>8319</t>
         </is>
       </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>8319-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -8814,6 +10714,11 @@
           <t>12312</t>
         </is>
       </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -8836,6 +10741,11 @@
           <t>12312</t>
         </is>
       </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -8858,6 +10768,11 @@
           <t>12312</t>
         </is>
       </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>12312-Erin Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -8880,6 +10795,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -8902,6 +10822,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -8924,6 +10849,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -8946,6 +10876,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -8968,6 +10903,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -8990,6 +10930,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -9012,6 +10957,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -9034,6 +10984,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -9056,6 +11011,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -9078,6 +11038,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -9100,6 +11065,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -9122,6 +11092,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -9144,6 +11119,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -9166,6 +11146,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -9188,6 +11173,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -9210,6 +11200,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -9232,6 +11227,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -9254,6 +11254,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -9276,6 +11281,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -9298,6 +11308,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -9320,6 +11335,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -9342,6 +11362,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -9364,6 +11389,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -9386,6 +11416,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -9408,6 +11443,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -9430,6 +11470,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -9452,6 +11497,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -9474,6 +11524,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -9496,6 +11551,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -9518,6 +11578,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -9540,6 +11605,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -9562,6 +11632,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -9584,6 +11659,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -9606,6 +11686,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -9628,6 +11713,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -9650,6 +11740,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -9672,6 +11767,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -9694,6 +11794,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -9716,6 +11821,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -9738,6 +11848,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -9760,6 +11875,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -9782,6 +11902,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -9804,6 +11929,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -9826,6 +11956,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -9848,6 +11983,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -9870,6 +12010,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -9892,6 +12037,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -9914,6 +12064,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -9936,6 +12091,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -9958,6 +12118,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -9980,6 +12145,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -10002,6 +12172,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -10024,6 +12199,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -10046,6 +12226,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -10068,6 +12253,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -10090,6 +12280,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -10112,6 +12307,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -10134,6 +12334,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -10156,6 +12361,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -10178,6 +12388,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -10200,6 +12415,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -10222,6 +12442,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -10244,6 +12469,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -10266,6 +12496,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -10288,6 +12523,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -10310,6 +12550,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -10332,6 +12577,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -10354,6 +12604,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -10376,6 +12631,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -10398,6 +12658,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -10420,6 +12685,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -10442,6 +12712,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -10464,6 +12739,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -10486,6 +12766,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -10508,6 +12793,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -10530,6 +12820,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -10552,6 +12847,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -10574,6 +12874,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -10596,6 +12901,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -10618,6 +12928,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -10640,6 +12955,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -10662,6 +12982,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -10684,6 +13009,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -10706,6 +13036,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -10728,6 +13063,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -10750,6 +13090,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -10772,6 +13117,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -10794,6 +13144,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -10816,6 +13171,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -10838,6 +13198,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -10860,6 +13225,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -10882,6 +13252,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -10904,6 +13279,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -10926,6 +13306,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -10948,6 +13333,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -10970,6 +13360,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -10992,6 +13387,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -11014,6 +13414,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -11036,6 +13441,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -11058,6 +13468,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -11080,6 +13495,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -11102,6 +13522,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -11124,6 +13549,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -11146,6 +13576,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -11168,6 +13603,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -11190,6 +13630,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -11212,6 +13657,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -11234,6 +13684,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -11256,6 +13711,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -11278,6 +13738,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -11300,6 +13765,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -11322,6 +13792,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>143-Jefferson Oaks SHU</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -11344,6 +13819,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -11366,6 +13846,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -11388,6 +13873,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -11410,6 +13900,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>143-OCHLAP5</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -11432,6 +13927,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -11454,6 +13954,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -11476,6 +13981,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -11498,6 +14008,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -11520,6 +14035,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -11542,6 +14062,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -11564,6 +14089,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -11586,6 +14116,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>143-Palmer Pointe SHU</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -11608,6 +14143,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>143-OCHLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -11630,6 +14170,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -11652,6 +14197,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -11674,6 +14224,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -11696,6 +14251,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>143-Unity Park SHU</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -11718,6 +14278,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>143-OCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -11740,6 +14305,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>143-OLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -11762,6 +14332,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -11784,6 +14359,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -11806,6 +14386,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -11828,6 +14413,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>143-OLAP CG</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -11850,6 +14440,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>143-ORRH</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -11872,6 +14467,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -11894,6 +14494,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -11916,6 +14521,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -11938,6 +14548,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -11960,6 +14575,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -11982,6 +14602,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -12004,6 +14629,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -12026,6 +14656,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -12048,6 +14683,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -12070,6 +14710,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -12092,6 +14737,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -12114,6 +14764,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -12136,6 +14791,11 @@
           <t>143</t>
         </is>
       </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>143-ORRH2</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -12158,6 +14818,11 @@
           <t>11495</t>
         </is>
       </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -12180,6 +14845,11 @@
           <t>11495</t>
         </is>
       </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -12202,6 +14872,11 @@
           <t>11495</t>
         </is>
       </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>11495-WCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -12224,6 +14899,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -12246,6 +14926,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -12268,6 +14953,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -12290,6 +14980,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -12312,6 +15007,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -12334,6 +15034,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -12356,6 +15061,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -12378,6 +15088,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -12400,6 +15115,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>1371-MLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -12422,6 +15142,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -12444,6 +15169,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -12466,6 +15196,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>1371-MLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -12488,6 +15223,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -12510,6 +15250,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -12532,6 +15277,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -12554,6 +15304,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -12576,6 +15331,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP6</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -12598,6 +15358,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -12620,6 +15385,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -12642,6 +15412,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -12664,6 +15439,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>1371-MLAP7</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -12686,6 +15466,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>1371-MLAP2</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -12708,6 +15493,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>1371-MCHLAP1</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -12730,6 +15520,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -12752,6 +15547,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -12774,6 +15574,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -12796,6 +15601,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -12818,6 +15628,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -12840,6 +15655,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -12862,6 +15682,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -12884,6 +15709,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -12906,6 +15736,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -12928,6 +15763,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -12950,6 +15790,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -12972,6 +15817,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -12994,6 +15844,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -13016,6 +15871,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -13038,6 +15898,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -13060,6 +15925,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -13082,6 +15952,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -13104,6 +15979,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -13126,6 +16006,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -13148,6 +16033,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -13170,6 +16060,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -13192,6 +16087,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -13214,6 +16114,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -13236,6 +16141,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -13258,6 +16168,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -13280,6 +16195,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -13302,6 +16222,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -13324,6 +16249,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -13346,6 +16276,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -13368,6 +16303,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -13390,6 +16330,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -13412,6 +16357,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -13434,6 +16384,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -13456,6 +16411,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -13478,6 +16438,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -13500,6 +16465,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -13522,6 +16492,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -13544,6 +16519,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -13566,6 +16546,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -13588,6 +16573,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -13610,6 +16600,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -13632,6 +16627,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -13654,6 +16654,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -13676,6 +16681,11 @@
           <t>1371</t>
         </is>
       </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>1371-MC SSO</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -13696,6 +16706,11 @@
       <c r="D603" t="inlineStr">
         <is>
           <t>1371</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>1371-MC RRH</t>
         </is>
       </c>
     </row>
